--- a/Iter0-PreFilteredPairs.xlsx
+++ b/Iter0-PreFilteredPairs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheoryDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95B80FD-BD40-478A-AC1A-C01E80DCB2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DABA04-2068-4DE0-8B33-52FFC3C9419D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="428">
   <si>
     <t>All</t>
   </si>
@@ -1322,6 +1322,9 @@
   </si>
   <si>
     <t>duplicate email</t>
+  </si>
+  <si>
+    <t>Pattern counts:</t>
   </si>
 </sst>
 </file>
@@ -1431,1154 +1434,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>ArchIssueAllEmail!$R$3:$R$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.81818181818181823</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.76923076923076927</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.7857142857142857</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.8125</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.82352941176470584</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.84210526315789469</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.80952380952380953</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.81818181818181823</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.82608695652173914</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.80769230769230771</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.81481481481481477</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.8214285714285714</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.7931034482758621</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.76666666666666672</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.74193548387096775</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.72727272727272729</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.73529411764705888</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.74285714285714288</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.72222222222222221</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.72972972972972971</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.71052631578947367</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.69230769230769229</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.67500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.65853658536585369</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.6428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.62790697674418605</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.61363636363636365</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.62222222222222223</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.63043478260869568</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.63829787234042556</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.61224489795918369</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.60784313725490191</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.59615384615384615</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.60377358490566035</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.61111111111111116</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.5892857142857143</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.57894736842105265</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.58620689655172409</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.57627118644067798</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.56666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.55737704918032782</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.56451612903225812</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.55555555555555558</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.546875</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.53846153846153844</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.53030303030303028</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.53731343283582089</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.54411764705882348</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.55072463768115942</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.54285714285714282</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.53521126760563376</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.52777777777777779</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.52054794520547942</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.51351351351351349</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.50666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.4935064935064935</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.50632911392405067</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.49382716049382713</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.48780487804878048</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.48192771084337349</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.48809523809523808</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.4823529411764706</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.47674418604651164</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.47126436781609193</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.46590909090909088</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.4606741573033708</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.45555555555555555</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.45054945054945056</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.44565217391304346</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.44086021505376344</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.43617021276595747</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.43157894736842106</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.42708333333333331</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.4329896907216495</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.42857142857142855</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.42424242424242425</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.42</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4B38-47F1-AAB0-E458288ADA11}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1220520704"/>
-        <c:axId val="1220508704"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1220520704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1220508704"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1220508704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1220520704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>336666</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>74814</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>31866</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>119149</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F4B98D8-CD51-D935-8080-301D67A382D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2844,15 +1699,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2860,7 +1715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2891,8 +1746,11 @@
       <c r="R2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2927,8 +1785,15 @@
         <f>Q3/P3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <f>COUNTIF(G3:G102,S3)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2961,8 +1826,15 @@
         <f t="shared" ref="R4:R67" si="0">Q4/P4</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <f>COUNTIF(G3:G102,S4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2995,8 +1867,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <f>COUNTIF(G3:G102,S5)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3029,8 +1908,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <f>COUNTIF(G3:G102,S6)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3063,8 +1949,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7">
+        <v>6</v>
+      </c>
+      <c r="T7">
+        <f>COUNTIF(G3:G102,S7)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3097,8 +1990,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <f>COUNTIF(G3:G102,S8)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3132,8 +2032,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9">
+        <v>8</v>
+      </c>
+      <c r="T9">
+        <f>COUNTIF(G3:G102,S9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3166,8 +2073,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10">
+        <v>9</v>
+      </c>
+      <c r="T10">
+        <f>COUNTIF(G3:G102,S10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3203,8 +2117,15 @@
         <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11">
+        <v>11</v>
+      </c>
+      <c r="T11">
+        <f>COUNTIF(G3:G102,S11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3240,8 +2161,15 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12">
+        <v>12</v>
+      </c>
+      <c r="T12">
+        <f>COUNTIF(G3:G102,S12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3274,8 +2202,15 @@
         <f t="shared" si="0"/>
         <v>0.81818181818181823</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13">
+        <v>13</v>
+      </c>
+      <c r="T13">
+        <f>COUNTIF(G3:G102,S13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3308,8 +2243,15 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14">
+        <v>14</v>
+      </c>
+      <c r="T14">
+        <f>COUNTIF(G3:G102,S14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3345,8 +2287,15 @@
         <f t="shared" si="0"/>
         <v>0.76923076923076927</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15">
+        <v>15</v>
+      </c>
+      <c r="T15">
+        <f>COUNTIF(G3:G102,S15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3378,6 +2327,13 @@
       <c r="R16">
         <f t="shared" si="0"/>
         <v>0.7857142857142857</v>
+      </c>
+      <c r="S16">
+        <v>16</v>
+      </c>
+      <c r="T16">
+        <f>COUNTIF(G3:G102,S16)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -6469,21 +5425,20 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF07CF5-9A1D-4F14-A0A8-0AF0A7795FA3}">
-  <dimension ref="A2:S502"/>
+  <dimension ref="A2:U502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U16" sqref="T2:U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6517,8 +5472,11 @@
       <c r="S2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6556,8 +5514,15 @@
         <f>R3/Q3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <f>COUNTIF(H3:H102,T3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6593,8 +5558,15 @@
         <f t="shared" ref="S4:S67" si="0">R4/Q4</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <f>COUNTIF(H3:H102,T4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6630,8 +5602,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <f>COUNTIF(H3:H102,T5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6667,8 +5646,15 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <f>COUNTIF(H3:H102,T6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6707,8 +5693,15 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <f>COUNTIF(H3:H102,T7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6747,8 +5740,15 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>7</v>
+      </c>
+      <c r="U8">
+        <f>COUNTIF(H3:H102,T8)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6784,8 +5784,15 @@
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>8</v>
+      </c>
+      <c r="U9">
+        <f>COUNTIF(H3:H102,T9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6817,15 +5824,22 @@
         <v>8</v>
       </c>
       <c r="R10">
-        <f t="shared" si="1"/>
+        <f>R9+(IF(ISNUMBER(H10),1,0))</f>
         <v>7</v>
       </c>
       <c r="S10">
         <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>9</v>
+      </c>
+      <c r="U10">
+        <f>COUNTIF(H3:H102,T10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6864,8 +5878,15 @@
         <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>11</v>
+      </c>
+      <c r="U11">
+        <f>COUNTIF(H3:H102,T11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6904,8 +5925,15 @@
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>12</v>
+      </c>
+      <c r="U12">
+        <f>COUNTIF(H3:H102,T12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6944,8 +5972,15 @@
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>13</v>
+      </c>
+      <c r="U13">
+        <f>COUNTIF(H3:H102,T13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6984,8 +6019,15 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>14</v>
+      </c>
+      <c r="U14">
+        <f>COUNTIF(H3:H102,T14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -7027,8 +6069,15 @@
         <f t="shared" si="0"/>
         <v>0.76923076923076927</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>15</v>
+      </c>
+      <c r="U15">
+        <f>COUNTIF(H3:H102,T15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -7063,6 +6112,13 @@
       <c r="S16">
         <f t="shared" si="0"/>
         <v>0.7857142857142857</v>
+      </c>
+      <c r="T16">
+        <v>16</v>
+      </c>
+      <c r="U16">
+        <f>COUNTIF(H3:H102,T16)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
